--- a/analysis/xlsx/나이대별_판매량.xlsx
+++ b/analysis/xlsx/나이대별_판매량.xlsx
@@ -47,9 +47,9 @@
   </si>
   <si>
     <t>전체 10대 - 공급가액: 0.0, 예측 공급가액: 0.0
-전체 20대 - 공급가액: 5386614200.0, 예측 공급가액: 6615300406.666687
-전체 30대 - 공급가액: 6426764600.0, 예측 공급가액: 7764249040.0
-전체 40대 - 공급가액: 3461599000.0, 예측 공급가액: 4208133000.0</t>
+전체 20대 - 공급가액: 5623214100.0, 예측 공급가액: 6820556636.666687
+전체 30대 - 공급가액: 5873117700.0, 예측 공급가액: 7186818976.666687
+전체 40대 - 공급가액: 3778646000.0, 예측 공급가액: 4580306833.333313</t>
   </si>
 </sst>
 </file>
@@ -455,10 +455,10 @@
         <v>7</v>
       </c>
       <c r="C3">
-        <v>5386614200</v>
+        <v>5623214100</v>
       </c>
       <c r="D3">
-        <v>6615300406.666687</v>
+        <v>6820556636.666687</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -469,10 +469,10 @@
         <v>8</v>
       </c>
       <c r="C4">
-        <v>6426764600</v>
+        <v>5873117700</v>
       </c>
       <c r="D4">
-        <v>7764249040</v>
+        <v>7186818976.666687</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -483,10 +483,10 @@
         <v>9</v>
       </c>
       <c r="C5">
-        <v>3461599000</v>
+        <v>3778646000</v>
       </c>
       <c r="D5">
-        <v>4208133000</v>
+        <v>4580306833.333313</v>
       </c>
     </row>
   </sheetData>
